--- a/results/mp/deberta/corona/confidence/168/stop-words-0.15/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="1457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="1457">
   <si>
     <t>anchor score</t>
   </si>
@@ -469,823 +469,823 @@
     <t>recession</t>
   </si>
   <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>challenges</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>entire</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>suppliers</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>fed</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>canadian</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>worldwide</t>
+  </si>
+  <si>
+    <t>europe</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>communities</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>stocks</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>hospitals</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>almost</t>
+  </si>
+  <si>
+    <t>rising</t>
+  </si>
+  <si>
+    <t>ceo</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>wearing</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>worker</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>groceries</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>says</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>hilarious</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>significant</t>
-  </si>
-  <si>
-    <t>challenges</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>entire</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>dia</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>agriculture</t>
-  </si>
-  <si>
-    <t>suppliers</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>wrong</t>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>thankful</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>donated</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>homemade</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>assure</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>safer</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>dow</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>boost</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>fed</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>canadian</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>worldwide</t>
-  </si>
-  <si>
-    <t>europe</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>pa</t>
-  </si>
-  <si>
-    <t>communities</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>stocks</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>hospitals</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>insurance</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>etc</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>almost</t>
-  </si>
-  <si>
-    <t>rising</t>
-  </si>
-  <si>
-    <t>ceo</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>wearing</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>outside</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>worker</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>groceries</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>says</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>appreciation</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>appreciate</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>episode</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>supporting</t>
-  </si>
-  <si>
-    <t>highlight</t>
-  </si>
-  <si>
-    <t>hilarious</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>affordable</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>thankful</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>donated</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>initiative</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>homemade</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>assure</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>safer</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>dow</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>boost</t>
   </si>
   <si>
     <t>hopes</t>
@@ -4750,10 +4750,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -4832,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -4882,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -4932,7 +4932,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -4982,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -5032,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -5082,7 +5082,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -5182,7 +5182,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -5232,7 +5232,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -5382,7 +5382,7 @@
         <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K14">
         <v>0.9444444444444444</v>
@@ -5582,7 +5582,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K18">
         <v>0.9090909090909091</v>
@@ -5632,7 +5632,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K19">
         <v>0.9</v>
@@ -5682,7 +5682,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K20">
         <v>0.8947368421052632</v>
@@ -5782,7 +5782,7 @@
         <v>163</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K22">
         <v>0.875</v>
@@ -5882,7 +5882,7 @@
         <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K24">
         <v>0.8611111111111112</v>
@@ -5932,7 +5932,7 @@
         <v>7</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K25">
         <v>0.8571428571428571</v>
@@ -5982,7 +5982,7 @@
         <v>6</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K26">
         <v>0.8571428571428571</v>
@@ -6082,7 +6082,7 @@
         <v>3</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K28">
         <v>0.8461538461538461</v>
@@ -6132,7 +6132,7 @@
         <v>5</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K29">
         <v>0.8461538461538461</v>
@@ -6282,7 +6282,7 @@
         <v>4</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K32">
         <v>0.8333333333333334</v>
@@ -6332,7 +6332,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K33">
         <v>0.8333333333333334</v>
@@ -6382,7 +6382,7 @@
         <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K34">
         <v>0.8188976377952756</v>
@@ -6432,7 +6432,7 @@
         <v>4</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K35">
         <v>0.8181818181818182</v>
@@ -6582,7 +6582,7 @@
         <v>2</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K38">
         <v>0.8</v>
@@ -6732,7 +6732,7 @@
         <v>2</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K41">
         <v>0.75</v>
@@ -6832,7 +6832,7 @@
         <v>4</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K43">
         <v>0.75</v>
@@ -6882,7 +6882,7 @@
         <v>5</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K44">
         <v>0.75</v>
@@ -6932,7 +6932,7 @@
         <v>5</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K45">
         <v>0.7388535031847133</v>
@@ -6982,7 +6982,7 @@
         <v>5</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K46">
         <v>0.7333333333333333</v>
@@ -7082,7 +7082,7 @@
         <v>5</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K48">
         <v>0.7272727272727273</v>
@@ -7132,7 +7132,7 @@
         <v>5</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K49">
         <v>0.7272727272727273</v>
@@ -7232,7 +7232,7 @@
         <v>56</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K51">
         <v>0.7142857142857143</v>
@@ -7282,7 +7282,7 @@
         <v>6</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K52">
         <v>0.7142857142857143</v>
@@ -7332,7 +7332,7 @@
         <v>3</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K53">
         <v>0.7142857142857143</v>
@@ -7432,7 +7432,7 @@
         <v>3</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K55">
         <v>0.7</v>
@@ -7482,7 +7482,7 @@
         <v>3</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K56">
         <v>0.7</v>
@@ -7532,7 +7532,7 @@
         <v>3</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K57">
         <v>0.6785714285714286</v>
@@ -7582,28 +7582,28 @@
         <v>3</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>151</v>
+        <v>388</v>
       </c>
       <c r="K58">
-        <v>0.6753246753246753</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L58">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="M58">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="N58">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -7632,7 +7632,7 @@
         <v>6</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>390</v>
+        <v>58</v>
       </c>
       <c r="K59">
         <v>0.6666666666666666</v>
@@ -7641,16 +7641,16 @@
         <v>6</v>
       </c>
       <c r="M59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -7682,28 +7682,28 @@
         <v>3</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K60">
         <v>0.6666666666666666</v>
       </c>
       <c r="L60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M60">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N60">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="O60">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -7732,28 +7732,28 @@
         <v>19</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="K61">
         <v>0.6666666666666666</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M61">
+        <v>10</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
         <v>5</v>
-      </c>
-      <c r="N61">
-        <v>0.8</v>
-      </c>
-      <c r="O61">
-        <v>0.2</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -7782,16 +7782,16 @@
         <v>15</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K62">
         <v>0.6666666666666666</v>
       </c>
       <c r="L62">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M62">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -7803,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -7832,16 +7832,16 @@
         <v>15</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K63">
         <v>0.6666666666666666</v>
       </c>
       <c r="L63">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M63">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -7853,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -7882,28 +7882,28 @@
         <v>19</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>393</v>
+        <v>23</v>
       </c>
       <c r="K64">
         <v>0.6666666666666666</v>
       </c>
       <c r="L64">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M64">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -7932,7 +7932,7 @@
         <v>27</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>23</v>
+        <v>392</v>
       </c>
       <c r="K65">
         <v>0.6666666666666666</v>
@@ -7941,16 +7941,16 @@
         <v>4</v>
       </c>
       <c r="M65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N65">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -7982,7 +7982,7 @@
         <v>12</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K66">
         <v>0.6666666666666666</v>
@@ -8032,7 +8032,7 @@
         <v>4</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K67">
         <v>0.6666666666666666</v>
@@ -8082,7 +8082,7 @@
         <v>4</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K68">
         <v>0.6666666666666666</v>
@@ -8132,16 +8132,16 @@
         <v>4</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K69">
-        <v>0.6666666666666666</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="M69">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -8153,7 +8153,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -8282,7 +8282,7 @@
         <v>4</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K72">
         <v>0.6382978723404256</v>
@@ -8332,7 +8332,7 @@
         <v>4</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K73">
         <v>0.6363636363636364</v>
@@ -8382,7 +8382,7 @@
         <v>4</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K74">
         <v>0.6363636363636364</v>
@@ -8432,7 +8432,7 @@
         <v>4</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K75">
         <v>0.6363636363636364</v>
@@ -8482,7 +8482,7 @@
         <v>4</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K76">
         <v>0.631578947368421</v>
@@ -8532,7 +8532,7 @@
         <v>8</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K77">
         <v>0.625</v>
@@ -8582,7 +8582,7 @@
         <v>13</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K78">
         <v>0.625</v>
@@ -8632,7 +8632,7 @@
         <v>9</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K79">
         <v>0.625</v>
@@ -8682,7 +8682,7 @@
         <v>5</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K80">
         <v>0.625</v>
@@ -8732,7 +8732,7 @@
         <v>5</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K81">
         <v>0.625</v>
@@ -8782,7 +8782,7 @@
         <v>5</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K82">
         <v>0.625</v>
@@ -8882,7 +8882,7 @@
         <v>5</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K84">
         <v>0.625</v>
@@ -8932,7 +8932,7 @@
         <v>5</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K85">
         <v>0.625</v>
@@ -9032,7 +9032,7 @@
         <v>5</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K87">
         <v>0.6</v>
@@ -9232,7 +9232,7 @@
         <v>5</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K91">
         <v>0.5934065934065934</v>
@@ -9282,7 +9282,7 @@
         <v>5</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K92">
         <v>0.5833333333333334</v>
@@ -9332,7 +9332,7 @@
         <v>5</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K93">
         <v>0.574468085106383</v>
@@ -9382,7 +9382,7 @@
         <v>5</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K94">
         <v>0.5714285714285714</v>
@@ -9432,7 +9432,7 @@
         <v>5</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K95">
         <v>0.5714285714285714</v>
@@ -9482,7 +9482,7 @@
         <v>26</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K96">
         <v>0.5714285714285714</v>
@@ -9532,7 +9532,7 @@
         <v>22</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K97">
         <v>0.5714285714285714</v>
@@ -9582,7 +9582,7 @@
         <v>11</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K98">
         <v>0.5555555555555556</v>
@@ -9632,7 +9632,7 @@
         <v>11</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K99">
         <v>0.5555555555555556</v>
@@ -9732,7 +9732,7 @@
         <v>17</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K101">
         <v>0.5454545454545454</v>
@@ -9782,7 +9782,7 @@
         <v>35</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K102">
         <v>0.5384615384615384</v>
@@ -9832,7 +9832,7 @@
         <v>18</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K103">
         <v>0.5333333333333333</v>
@@ -9882,28 +9882,28 @@
         <v>6</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>184</v>
+        <v>420</v>
       </c>
       <c r="K104">
-        <v>0.5304878048780488</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L104">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="M104">
-        <v>186</v>
+        <v>27</v>
       </c>
       <c r="N104">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O104">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>154</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:17">
@@ -9935,13 +9935,13 @@
         <v>421</v>
       </c>
       <c r="K105">
-        <v>0.5294117647058824</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L105">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="M105">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -10032,28 +10032,28 @@
         <v>6</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>423</v>
+        <v>257</v>
       </c>
       <c r="K107">
-        <v>0.5217391304347826</v>
+        <v>0.515625</v>
       </c>
       <c r="L107">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="M107">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="N107">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O107">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q107">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -10082,28 +10082,28 @@
         <v>6</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>259</v>
+        <v>423</v>
       </c>
       <c r="K108">
-        <v>0.515625</v>
+        <v>0.5117647058823529</v>
       </c>
       <c r="L108">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="M108">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="N108">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O108">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>31</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -11132,7 +11132,7 @@
         <v>16</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K129">
         <v>0.4814814814814815</v>
@@ -11232,7 +11232,7 @@
         <v>8</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K131">
         <v>0.4776119402985075</v>
@@ -11432,7 +11432,7 @@
         <v>17</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K135">
         <v>0.4651162790697674</v>
@@ -11732,7 +11732,7 @@
         <v>18</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K141">
         <v>0.4523809523809524</v>
@@ -11961,28 +11961,28 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.0963855421686747</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C146">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D146">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="E146">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F146">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K146">
         <v>0.4333333333333333</v>
@@ -12011,25 +12011,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>79</v>
@@ -12067,16 +12067,16 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
         <v>10</v>
@@ -12117,16 +12117,16 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
         <v>10</v>
@@ -12167,16 +12167,16 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
         <v>10</v>
@@ -12217,13 +12217,13 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E151">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F151">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
@@ -12267,13 +12267,13 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E152">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F152">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
@@ -12317,13 +12317,13 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E153">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F153">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
@@ -12367,16 +12367,16 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
         <v>10</v>
@@ -12461,7 +12461,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -12479,7 +12479,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>457</v>
@@ -12667,16 +12667,16 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
         <v>11</v>
@@ -12717,22 +12717,22 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
         <v>11</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K161">
         <v>0.4031413612565445</v>
@@ -12767,22 +12767,22 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
         <v>11</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K162">
         <v>0.4</v>
@@ -12817,13 +12817,13 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E163">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F163">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
@@ -12867,16 +12867,16 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
         <v>11</v>
@@ -12911,25 +12911,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.08333333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>463</v>
@@ -12961,25 +12961,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.08</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D166">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E166">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>65</v>
@@ -13017,22 +13017,22 @@
         <v>3</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
         <v>35</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K167">
         <v>0.3888888888888889</v>
@@ -13061,25 +13061,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.07894736842105263</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>464</v>
@@ -13117,16 +13117,16 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
         <v>12</v>
@@ -13217,13 +13217,13 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E171">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F171">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
@@ -13267,13 +13267,13 @@
         <v>1</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E172">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F172">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
@@ -13317,16 +13317,16 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E173">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
         <v>12</v>
@@ -13414,10 +13414,10 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -13429,7 +13429,7 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>471</v>
@@ -13461,25 +13461,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.07692307692307693</v>
+        <v>0.075</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>472</v>
@@ -13511,25 +13511,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.075</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="E177">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>473</v>
@@ -13561,13 +13561,13 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -13579,7 +13579,7 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>474</v>
@@ -13611,25 +13611,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.07228915662650602</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C179">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>186</v>
+        <v>4</v>
       </c>
       <c r="E179">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F179">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>475</v>
@@ -13711,28 +13711,28 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.07142857142857142</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D181">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="E181">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F181">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K181">
         <v>0.3658536585365854</v>
@@ -13761,13 +13761,13 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -13779,7 +13779,7 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>125</v>
@@ -13811,25 +13811,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.06818181818181818</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="E183">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>476</v>
@@ -13864,22 +13864,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>477</v>
@@ -13917,16 +13917,16 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
         <v>14</v>
@@ -13967,16 +13967,16 @@
         <v>1</v>
       </c>
       <c r="D186">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E186">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
         <v>14</v>
@@ -14017,13 +14017,13 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E187">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F187">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
@@ -14032,7 +14032,7 @@
         <v>14</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K187">
         <v>0.36</v>
@@ -14117,13 +14117,13 @@
         <v>1</v>
       </c>
       <c r="D189">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E189">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F189">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
@@ -14164,10 +14164,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -14179,7 +14179,7 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>482</v>
@@ -14217,13 +14217,13 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E191">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F191">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
@@ -14264,10 +14264,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -14279,7 +14279,7 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>484</v>
@@ -14311,25 +14311,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E193">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>485</v>
@@ -14361,13 +14361,13 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -14379,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>486</v>
@@ -14411,25 +14411,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>487</v>
@@ -14461,13 +14461,13 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -14479,7 +14479,7 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>488</v>
@@ -14511,28 +14511,28 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E197">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K197">
         <v>0.3448275862068966</v>
@@ -14567,16 +14567,16 @@
         <v>1</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198">
         <v>16</v>
@@ -14617,16 +14617,16 @@
         <v>1</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199">
         <v>16</v>
@@ -14661,25 +14661,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.05882352941176471</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E200">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F200">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>491</v>
@@ -14711,25 +14711,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E201">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F201">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>492</v>
@@ -14761,28 +14761,28 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.05714285714285714</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E202">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K202">
         <v>0.3333333333333333</v>
@@ -14817,13 +14817,13 @@
         <v>1</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E203">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F203">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
@@ -14911,25 +14911,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.05555555555555555</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D205">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E205">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>495</v>
@@ -14961,25 +14961,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>496</v>
@@ -15011,13 +15011,13 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.05405405405405406</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -15029,7 +15029,7 @@
         <v>0</v>
       </c>
       <c r="H207">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>497</v>
@@ -15067,16 +15067,16 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E208">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208">
         <v>18</v>
@@ -15111,25 +15111,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>499</v>
@@ -15161,25 +15161,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>500</v>
@@ -15217,13 +15217,13 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E211">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F211">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
@@ -15267,13 +15267,13 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E212">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F212">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
@@ -15317,13 +15317,13 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E213">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F213">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
@@ -15361,25 +15361,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E214">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F214">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>504</v>
@@ -15411,25 +15411,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E215">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F215">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>505</v>
@@ -15467,13 +15467,13 @@
         <v>1</v>
       </c>
       <c r="D216">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E216">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F216">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
@@ -15511,25 +15511,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E217">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F217">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>507</v>
@@ -15561,25 +15561,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E218">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F218">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>508</v>
@@ -15617,13 +15617,13 @@
         <v>1</v>
       </c>
       <c r="D219">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="E219">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="F219">
-        <v>0.03000000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
@@ -15717,13 +15717,13 @@
         <v>1</v>
       </c>
       <c r="D221">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E221">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F221">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
@@ -15767,13 +15767,13 @@
         <v>1</v>
       </c>
       <c r="D222">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E222">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F222">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
@@ -15811,25 +15811,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.04545454545454546</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D223">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E223">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="F223">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>513</v>
@@ -15861,25 +15861,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E224">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F224">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>514</v>
@@ -15911,25 +15911,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.04444444444444445</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D225">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E225">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>77</v>
@@ -15961,25 +15961,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="E226">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="F226">
-        <v>0.14</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>515</v>
@@ -16011,25 +16011,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>516</v>
@@ -16067,16 +16067,16 @@
         <v>1</v>
       </c>
       <c r="D228">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="E228">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228">
         <v>23</v>
@@ -16111,25 +16111,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E229">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H229">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>518</v>
@@ -16161,25 +16161,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>519</v>
@@ -16211,13 +16211,13 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.04</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -16229,7 +16229,7 @@
         <v>0</v>
       </c>
       <c r="H231">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>520</v>
@@ -16261,25 +16261,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.04</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D232">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E232">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>74</v>
@@ -16311,25 +16311,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0392156862745098</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C233">
         <v>2</v>
       </c>
       <c r="D233">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H233">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>521</v>
@@ -16361,13 +16361,13 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.03896103896103896</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C234">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -16379,7 +16379,7 @@
         <v>0</v>
       </c>
       <c r="H234">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>522</v>
@@ -16411,25 +16411,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.03846153846153846</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="C235">
         <v>2</v>
       </c>
       <c r="D235">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E235">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="F235">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>523</v>
@@ -16461,25 +16461,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>73</v>
@@ -16511,25 +16511,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.03773584905660377</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E237">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="F237">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>524</v>
@@ -16567,13 +16567,13 @@
         <v>1</v>
       </c>
       <c r="D238">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E238">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F238">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
@@ -16617,13 +16617,13 @@
         <v>1</v>
       </c>
       <c r="D239">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E239">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F239">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
@@ -16667,22 +16667,22 @@
         <v>1</v>
       </c>
       <c r="D240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E240">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H240">
         <v>26</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K240">
         <v>0.3229166666666667</v>
@@ -16711,25 +16711,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E241">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>527</v>
@@ -16761,25 +16761,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H242">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>528</v>
@@ -16817,16 +16817,16 @@
         <v>1</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F243">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H243">
         <v>27</v>
@@ -16861,25 +16861,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E244">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H244">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>530</v>
@@ -16911,25 +16911,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E245">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F245">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>531</v>
@@ -16961,25 +16961,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.03448275862068965</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H246">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>532</v>
@@ -17011,25 +17011,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E247">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F247">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>533</v>
@@ -17061,13 +17061,13 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.03389830508474576</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D248">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E248">
         <v>0.8</v>
@@ -17079,7 +17079,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>534</v>
@@ -17117,13 +17117,13 @@
         <v>1</v>
       </c>
       <c r="D249">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E249">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F249">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
@@ -17161,25 +17161,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E250">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F250">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>536</v>
@@ -17211,25 +17211,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.03333333333333333</v>
+        <v>0.03125</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E251">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F251">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>537</v>
@@ -17261,25 +17261,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E252">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F252">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>538</v>
@@ -17311,7 +17311,7 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -17329,7 +17329,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>539</v>
@@ -17361,25 +17361,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E254">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="F254">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>540</v>
@@ -17411,25 +17411,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.0303030303030303</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E255">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F255">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>541</v>
@@ -17461,25 +17461,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.0303030303030303</v>
+        <v>0.02793296089385475</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D256">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="E256">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F256">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>542</v>
@@ -17511,25 +17511,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E257">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F257">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>543</v>
@@ -17561,25 +17561,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.02793296089385475</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C258">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="E258">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F258">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H258">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>544</v>
@@ -17611,25 +17611,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E259">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F259">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>545</v>
@@ -17661,7 +17661,7 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.02777777777777778</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -17679,7 +17679,7 @@
         <v>0</v>
       </c>
       <c r="H260">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>546</v>
@@ -17711,25 +17711,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E261">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F261">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>547</v>
@@ -17767,22 +17767,22 @@
         <v>1</v>
       </c>
       <c r="D262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E262">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F262">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H262">
         <v>38</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K262">
         <v>0.2926829268292683</v>
@@ -17811,25 +17811,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D263">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E263">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F263">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H263">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>548</v>
@@ -17861,25 +17861,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E264">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F264">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H264">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>549</v>
@@ -17914,25 +17914,25 @@
         <v>0.025</v>
       </c>
       <c r="C265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D265">
         <v>2</v>
       </c>
       <c r="E265">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F265">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H265">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K265">
         <v>0.2857142857142857</v>
@@ -17967,16 +17967,16 @@
         <v>1</v>
       </c>
       <c r="D266">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E266">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F266">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H266">
         <v>39</v>
@@ -18017,13 +18017,13 @@
         <v>1</v>
       </c>
       <c r="D267">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E267">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F267">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
@@ -18032,7 +18032,7 @@
         <v>39</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K267">
         <v>0.2857142857142857</v>
@@ -18061,25 +18061,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E268">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F268">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>551</v>
@@ -18111,25 +18111,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E269">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F269">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>552</v>
@@ -18167,13 +18167,13 @@
         <v>1</v>
       </c>
       <c r="D270">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E270">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F270">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
@@ -18211,25 +18211,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D271">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E271">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="F271">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>554</v>
@@ -18261,25 +18261,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.02439024390243903</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E272">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F272">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H272">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>555</v>
@@ -18311,25 +18311,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.02380952380952381</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D273">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E273">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="F273">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>556</v>
@@ -18367,16 +18367,16 @@
         <v>1</v>
       </c>
       <c r="D274">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E274">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F274">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H274">
         <v>44</v>
@@ -18411,25 +18411,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E275">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F275">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>558</v>
@@ -18461,25 +18461,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
       <c r="D276">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E276">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F276">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>559</v>
@@ -18511,25 +18511,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.02173913043478261</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
       <c r="D277">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E277">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F277">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>560</v>
@@ -18561,25 +18561,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.02173913043478261</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E278">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F278">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>561</v>
@@ -18611,25 +18611,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E279">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F279">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>562</v>
@@ -18661,25 +18661,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.02083333333333333</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D280">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E280">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F280">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H280">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>563</v>
@@ -18711,25 +18711,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.02040816326530612</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="E281">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="F281">
-        <v>0.33</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>564</v>
@@ -18761,25 +18761,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.02013422818791946</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C282">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D282">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E282">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F282">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H282">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>565</v>
@@ -18817,13 +18817,13 @@
         <v>1</v>
       </c>
       <c r="D283">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="E283">
-        <v>0.99</v>
+        <v>0.88</v>
       </c>
       <c r="F283">
-        <v>0.01000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
@@ -18861,25 +18861,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.01923076923076923</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C284">
         <v>1</v>
       </c>
       <c r="D284">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E284">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F284">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G284" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H284">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>566</v>
@@ -18911,25 +18911,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.01923076923076923</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="C285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D285">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E285">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F285">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>567</v>
@@ -18961,25 +18961,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
       <c r="D286">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E286">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F286">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H286">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>568</v>
@@ -19011,25 +19011,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.01801801801801802</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D287">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E287">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F287">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>569</v>
@@ -19067,13 +19067,13 @@
         <v>1</v>
       </c>
       <c r="D288">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E288">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F288">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
@@ -19111,25 +19111,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
       <c r="D289">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E289">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F289">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>571</v>
@@ -19161,25 +19161,25 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>0.01785714285714286</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
       <c r="D290">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E290">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F290">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>572</v>
@@ -19211,7 +19211,7 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.01754385964912281</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -19229,7 +19229,7 @@
         <v>1</v>
       </c>
       <c r="H291">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>573</v>
@@ -19261,25 +19261,25 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.01724137931034483</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D292">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E292">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F292">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G292" t="b">
         <v>1</v>
       </c>
       <c r="H292">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>574</v>
@@ -19311,25 +19311,25 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>0.01666666666666667</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C293">
         <v>1</v>
       </c>
       <c r="D293">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E293">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F293">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G293" t="b">
         <v>1</v>
       </c>
       <c r="H293">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>575</v>
@@ -19361,25 +19361,25 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>0.01612903225806452</v>
+        <v>0.015625</v>
       </c>
       <c r="C294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D294">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E294">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F294">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>576</v>
@@ -19411,13 +19411,13 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>0.01587301587301587</v>
+        <v>0.01550387596899225</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D295">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E295">
         <v>0.9399999999999999</v>
@@ -19429,7 +19429,7 @@
         <v>1</v>
       </c>
       <c r="H295">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>577</v>
@@ -19461,25 +19461,25 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0.015625</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
       <c r="D296">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E296">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F296">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>578</v>
@@ -19511,25 +19511,25 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>0.01550387596899225</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C297">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D297">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E297">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F297">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G297" t="b">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>579</v>
@@ -19561,25 +19561,25 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>0.01515151515151515</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E298">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="F298">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>580</v>
@@ -19611,25 +19611,25 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>0.0131578947368421</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C299">
         <v>1</v>
       </c>
       <c r="D299">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E299">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F299">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G299" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H299">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>581</v>
@@ -19661,25 +19661,25 @@
         <v>305</v>
       </c>
       <c r="B300">
-        <v>0.0131578947368421</v>
+        <v>0.0125</v>
       </c>
       <c r="C300">
         <v>1</v>
       </c>
       <c r="D300">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E300">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F300">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>135</v>
@@ -19711,25 +19711,25 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>0.01265822784810127</v>
+        <v>0.0125</v>
       </c>
       <c r="C301">
         <v>1</v>
       </c>
       <c r="D301">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E301">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F301">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H301">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>582</v>
@@ -19767,13 +19767,13 @@
         <v>1</v>
       </c>
       <c r="D302">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E302">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F302">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G302" t="b">
         <v>1</v>
@@ -19811,25 +19811,25 @@
         <v>308</v>
       </c>
       <c r="B303">
-        <v>0.0125</v>
+        <v>0.01201201201201201</v>
       </c>
       <c r="C303">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D303">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E303">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F303">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G303" t="b">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>79</v>
+        <v>329</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>584</v>
@@ -19861,25 +19861,25 @@
         <v>309</v>
       </c>
       <c r="B304">
-        <v>0.0125</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="C304">
         <v>1</v>
       </c>
       <c r="D304">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E304">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F304">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G304" t="b">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>585</v>
@@ -19911,25 +19911,25 @@
         <v>310</v>
       </c>
       <c r="B305">
-        <v>0.01201201201201201</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C305">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D305">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="E305">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="F305">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G305" t="b">
         <v>1</v>
       </c>
       <c r="H305">
-        <v>329</v>
+        <v>85</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>586</v>
@@ -19961,25 +19961,25 @@
         <v>311</v>
       </c>
       <c r="B306">
-        <v>0.0119047619047619</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="C306">
         <v>1</v>
       </c>
       <c r="D306">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E306">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F306">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="G306" t="b">
         <v>1</v>
       </c>
       <c r="H306">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J306" s="1" t="s">
         <v>587</v>
@@ -20011,25 +20011,25 @@
         <v>312</v>
       </c>
       <c r="B307">
-        <v>0.01162790697674419</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="C307">
         <v>1</v>
       </c>
       <c r="D307">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E307">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F307">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G307" t="b">
         <v>1</v>
       </c>
       <c r="H307">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="J307" s="1" t="s">
         <v>588</v>
@@ -20061,25 +20061,25 @@
         <v>313</v>
       </c>
       <c r="B308">
-        <v>0.01075268817204301</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C308">
         <v>1</v>
       </c>
       <c r="D308">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E308">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F308">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G308" t="b">
         <v>1</v>
       </c>
       <c r="H308">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J308" s="1" t="s">
         <v>589</v>
@@ -20111,25 +20111,25 @@
         <v>314</v>
       </c>
       <c r="B309">
-        <v>0.01063829787234043</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C309">
         <v>1</v>
       </c>
       <c r="D309">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E309">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F309">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G309" t="b">
         <v>1</v>
       </c>
       <c r="H309">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="J309" s="1" t="s">
         <v>590</v>
@@ -20161,28 +20161,28 @@
         <v>315</v>
       </c>
       <c r="B310">
-        <v>0.01030927835051546</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C310">
         <v>1</v>
       </c>
       <c r="D310">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E310">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F310">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G310" t="b">
         <v>1</v>
       </c>
       <c r="H310">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J310" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K310">
         <v>0.2666666666666667</v>
@@ -20211,25 +20211,25 @@
         <v>316</v>
       </c>
       <c r="B311">
-        <v>0.009615384615384616</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C311">
         <v>1</v>
       </c>
       <c r="D311">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E311">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F311">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G311" t="b">
         <v>1</v>
       </c>
       <c r="H311">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J311" s="1" t="s">
         <v>591</v>
@@ -20261,28 +20261,28 @@
         <v>317</v>
       </c>
       <c r="B312">
-        <v>0.009523809523809525</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C312">
         <v>1</v>
       </c>
       <c r="D312">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E312">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F312">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G312" t="b">
         <v>1</v>
       </c>
       <c r="H312">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J312" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K312">
         <v>0.2631578947368421</v>
@@ -20311,25 +20311,25 @@
         <v>318</v>
       </c>
       <c r="B313">
-        <v>0.009523809523809525</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C313">
         <v>1</v>
       </c>
       <c r="D313">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E313">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F313">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G313" t="b">
         <v>1</v>
       </c>
       <c r="H313">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J313" s="1" t="s">
         <v>592</v>
@@ -20361,25 +20361,25 @@
         <v>319</v>
       </c>
       <c r="B314">
-        <v>0.009433962264150943</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C314">
         <v>1</v>
       </c>
       <c r="D314">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E314">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F314">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G314" t="b">
         <v>1</v>
       </c>
       <c r="H314">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J314" s="1" t="s">
         <v>593</v>
@@ -20411,13 +20411,13 @@
         <v>320</v>
       </c>
       <c r="B315">
-        <v>0.009345794392523364</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="C315">
         <v>1</v>
       </c>
       <c r="D315">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E315">
         <v>0.96</v>
@@ -20429,7 +20429,7 @@
         <v>1</v>
       </c>
       <c r="H315">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J315" s="1" t="s">
         <v>594</v>
@@ -20461,25 +20461,25 @@
         <v>321</v>
       </c>
       <c r="B316">
-        <v>0.009259259259259259</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="C316">
         <v>1</v>
       </c>
       <c r="D316">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E316">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="F316">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G316" t="b">
         <v>1</v>
       </c>
       <c r="H316">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J316" s="1" t="s">
         <v>595</v>
@@ -20511,25 +20511,25 @@
         <v>322</v>
       </c>
       <c r="B317">
-        <v>0.009174311926605505</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="C317">
         <v>1</v>
       </c>
       <c r="D317">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E317">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F317">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G317" t="b">
         <v>1</v>
       </c>
       <c r="H317">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J317" s="1" t="s">
         <v>596</v>
@@ -20561,25 +20561,25 @@
         <v>323</v>
       </c>
       <c r="B318">
-        <v>0.008771929824561403</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="C318">
         <v>1</v>
       </c>
       <c r="D318">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E318">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F318">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G318" t="b">
         <v>1</v>
       </c>
       <c r="H318">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="J318" s="1" t="s">
         <v>597</v>
@@ -20611,25 +20611,25 @@
         <v>324</v>
       </c>
       <c r="B319">
-        <v>0.008771929824561403</v>
+        <v>0.008</v>
       </c>
       <c r="C319">
         <v>1</v>
       </c>
       <c r="D319">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E319">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F319">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G319" t="b">
         <v>1</v>
       </c>
       <c r="H319">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J319" s="1" t="s">
         <v>598</v>
@@ -20661,25 +20661,25 @@
         <v>325</v>
       </c>
       <c r="B320">
-        <v>0.008333333333333333</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C320">
         <v>1</v>
       </c>
       <c r="D320">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E320">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F320">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G320" t="b">
         <v>1</v>
       </c>
       <c r="H320">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="J320" s="1" t="s">
         <v>599</v>
@@ -20711,25 +20711,25 @@
         <v>326</v>
       </c>
       <c r="B321">
-        <v>0.008</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="C321">
         <v>1</v>
       </c>
       <c r="D321">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E321">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F321">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G321" t="b">
         <v>1</v>
       </c>
       <c r="H321">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J321" s="1" t="s">
         <v>600</v>
@@ -20761,25 +20761,25 @@
         <v>327</v>
       </c>
       <c r="B322">
-        <v>0.007936507936507936</v>
+        <v>0.007648183556405353</v>
       </c>
       <c r="C322">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D322">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E322">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="F322">
-        <v>0.07999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="G322" t="b">
         <v>1</v>
       </c>
       <c r="H322">
-        <v>125</v>
+        <v>519</v>
       </c>
       <c r="J322" s="1" t="s">
         <v>601</v>
@@ -20811,28 +20811,28 @@
         <v>328</v>
       </c>
       <c r="B323">
-        <v>0.007874015748031496</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="C323">
         <v>1</v>
       </c>
       <c r="D323">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E323">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F323">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G323" t="b">
         <v>1</v>
       </c>
       <c r="H323">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="J323" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K323">
         <v>0.25</v>
@@ -20861,25 +20861,25 @@
         <v>329</v>
       </c>
       <c r="B324">
-        <v>0.007648183556405353</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="C324">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D324">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E324">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="F324">
-        <v>0.15</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G324" t="b">
         <v>1</v>
       </c>
       <c r="H324">
-        <v>519</v>
+        <v>290</v>
       </c>
       <c r="J324" s="1" t="s">
         <v>111</v>
@@ -20911,13 +20911,13 @@
         <v>330</v>
       </c>
       <c r="B325">
-        <v>0.007518796992481203</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="C325">
         <v>1</v>
       </c>
       <c r="D325">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E325">
         <v>0.93</v>
@@ -20929,7 +20929,7 @@
         <v>1</v>
       </c>
       <c r="H325">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="J325" s="1" t="s">
         <v>602</v>
@@ -20961,25 +20961,25 @@
         <v>331</v>
       </c>
       <c r="B326">
-        <v>0.00684931506849315</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="C326">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D326">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E326">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F326">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G326" t="b">
         <v>1</v>
       </c>
       <c r="H326">
-        <v>290</v>
+        <v>154</v>
       </c>
       <c r="J326" s="1" t="s">
         <v>603</v>
@@ -21011,25 +21011,25 @@
         <v>332</v>
       </c>
       <c r="B327">
-        <v>0.006578947368421052</v>
+        <v>0.006402048655569782</v>
       </c>
       <c r="C327">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D327">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="E327">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F327">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G327" t="b">
         <v>1</v>
       </c>
       <c r="H327">
-        <v>151</v>
+        <v>776</v>
       </c>
       <c r="J327" s="1" t="s">
         <v>604</v>
@@ -21061,25 +21061,25 @@
         <v>333</v>
       </c>
       <c r="B328">
-        <v>0.006451612903225806</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="C328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D328">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E328">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F328">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G328" t="b">
         <v>1</v>
       </c>
       <c r="H328">
-        <v>154</v>
+        <v>312</v>
       </c>
       <c r="J328" s="1" t="s">
         <v>605</v>
@@ -21111,25 +21111,25 @@
         <v>334</v>
       </c>
       <c r="B329">
-        <v>0.006402048655569782</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="C329">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D329">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="E329">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F329">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G329" t="b">
         <v>1</v>
       </c>
       <c r="H329">
-        <v>776</v>
+        <v>164</v>
       </c>
       <c r="J329" s="1" t="s">
         <v>606</v>
@@ -21161,25 +21161,25 @@
         <v>335</v>
       </c>
       <c r="B330">
-        <v>0.006369426751592357</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C330">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D330">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E330">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F330">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G330" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H330">
-        <v>312</v>
+        <v>165</v>
       </c>
       <c r="J330" s="1" t="s">
         <v>607</v>
@@ -21211,25 +21211,25 @@
         <v>336</v>
       </c>
       <c r="B331">
-        <v>0.006060606060606061</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="C331">
         <v>1</v>
       </c>
       <c r="D331">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E331">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F331">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G331" t="b">
         <v>1</v>
       </c>
       <c r="H331">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J331" s="1" t="s">
         <v>608</v>
@@ -21261,25 +21261,25 @@
         <v>337</v>
       </c>
       <c r="B332">
-        <v>0.006024096385542169</v>
+        <v>0.005509641873278237</v>
       </c>
       <c r="C332">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D332">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E332">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F332">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H332">
-        <v>165</v>
+        <v>361</v>
       </c>
       <c r="J332" s="1" t="s">
         <v>609</v>
@@ -21311,25 +21311,25 @@
         <v>338</v>
       </c>
       <c r="B333">
-        <v>0.005988023952095809</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="C333">
         <v>1</v>
       </c>
       <c r="D333">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E333">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F333">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G333" t="b">
         <v>1</v>
       </c>
       <c r="H333">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="J333" s="1" t="s">
         <v>610</v>
@@ -21361,25 +21361,25 @@
         <v>339</v>
       </c>
       <c r="B334">
-        <v>0.005509641873278237</v>
+        <v>0.005285412262156448</v>
       </c>
       <c r="C334">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D334">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E334">
-        <v>0.96</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F334">
-        <v>0.04000000000000004</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G334" t="b">
         <v>1</v>
       </c>
       <c r="H334">
-        <v>361</v>
+        <v>941</v>
       </c>
       <c r="J334" s="1" t="s">
         <v>611</v>
@@ -21411,25 +21411,25 @@
         <v>340</v>
       </c>
       <c r="B335">
-        <v>0.005291005291005291</v>
+        <v>0.005008347245409015</v>
       </c>
       <c r="C335">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D335">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E335">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F335">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G335" t="b">
         <v>1</v>
       </c>
       <c r="H335">
-        <v>188</v>
+        <v>596</v>
       </c>
       <c r="J335" s="1" t="s">
         <v>612</v>
@@ -21461,25 +21461,25 @@
         <v>341</v>
       </c>
       <c r="B336">
-        <v>0.005285412262156448</v>
+        <v>0.004987531172069825</v>
       </c>
       <c r="C336">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D336">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="E336">
-        <v>0.8100000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="F336">
-        <v>0.1899999999999999</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G336" t="b">
         <v>1</v>
       </c>
       <c r="H336">
-        <v>941</v>
+        <v>798</v>
       </c>
       <c r="J336" s="1" t="s">
         <v>613</v>
@@ -21511,25 +21511,25 @@
         <v>342</v>
       </c>
       <c r="B337">
-        <v>0.005008347245409015</v>
+        <v>0.004962779156327543</v>
       </c>
       <c r="C337">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D337">
-        <v>54</v>
+        <v>300</v>
       </c>
       <c r="E337">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F337">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G337" t="b">
         <v>1</v>
       </c>
       <c r="H337">
-        <v>596</v>
+        <v>2807</v>
       </c>
       <c r="J337" s="1" t="s">
         <v>614</v>
@@ -21561,25 +21561,25 @@
         <v>343</v>
       </c>
       <c r="B338">
-        <v>0.004987531172069825</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="C338">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D338">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="E338">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F338">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G338" t="b">
         <v>1</v>
       </c>
       <c r="H338">
-        <v>798</v>
+        <v>206</v>
       </c>
       <c r="J338" s="1" t="s">
         <v>615</v>
@@ -21611,25 +21611,25 @@
         <v>344</v>
       </c>
       <c r="B339">
-        <v>0.004962779156327543</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="C339">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D339">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="E339">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F339">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G339" t="b">
         <v>1</v>
       </c>
       <c r="H339">
-        <v>2807</v>
+        <v>213</v>
       </c>
       <c r="J339" s="1" t="s">
         <v>616</v>
@@ -21661,25 +21661,25 @@
         <v>345</v>
       </c>
       <c r="B340">
-        <v>0.004830917874396135</v>
+        <v>0.004528985507246377</v>
       </c>
       <c r="C340">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D340">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="E340">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F340">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G340" t="b">
         <v>1</v>
       </c>
       <c r="H340">
-        <v>206</v>
+        <v>1099</v>
       </c>
       <c r="J340" s="1" t="s">
         <v>617</v>
@@ -21711,25 +21711,25 @@
         <v>346</v>
       </c>
       <c r="B341">
-        <v>0.004672897196261682</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="C341">
         <v>1</v>
       </c>
       <c r="D341">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="E341">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F341">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G341" t="b">
         <v>1</v>
       </c>
       <c r="H341">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="J341" s="1" t="s">
         <v>618</v>
@@ -21761,28 +21761,28 @@
         <v>347</v>
       </c>
       <c r="B342">
-        <v>0.004528985507246377</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="C342">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D342">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="E342">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F342">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G342" t="b">
         <v>1</v>
       </c>
       <c r="H342">
-        <v>1099</v>
+        <v>234</v>
       </c>
       <c r="J342" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K342">
         <v>0.25</v>
@@ -21811,25 +21811,25 @@
         <v>348</v>
       </c>
       <c r="B343">
-        <v>0.004366812227074236</v>
+        <v>0.004081632653061225</v>
       </c>
       <c r="C343">
         <v>1</v>
       </c>
       <c r="D343">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="E343">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F343">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G343" t="b">
         <v>1</v>
       </c>
       <c r="H343">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="J343" s="1" t="s">
         <v>619</v>
@@ -21861,25 +21861,25 @@
         <v>349</v>
       </c>
       <c r="B344">
-        <v>0.00425531914893617</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="C344">
         <v>1</v>
       </c>
       <c r="D344">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E344">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F344">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G344" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H344">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="J344" s="1" t="s">
         <v>620</v>
@@ -21911,13 +21911,13 @@
         <v>350</v>
       </c>
       <c r="B345">
-        <v>0.004081632653061225</v>
+        <v>0.003764115432873275</v>
       </c>
       <c r="C345">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D345">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="E345">
         <v>0.96</v>
@@ -21929,7 +21929,7 @@
         <v>1</v>
       </c>
       <c r="H345">
-        <v>244</v>
+        <v>794</v>
       </c>
       <c r="J345" s="1" t="s">
         <v>621</v>
@@ -21961,25 +21961,25 @@
         <v>351</v>
       </c>
       <c r="B346">
-        <v>0.003968253968253968</v>
+        <v>0.00360082304526749</v>
       </c>
       <c r="C346">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D346">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="E346">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F346">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H346">
-        <v>251</v>
+        <v>1937</v>
       </c>
       <c r="J346" s="1" t="s">
         <v>622</v>
@@ -22011,25 +22011,25 @@
         <v>352</v>
       </c>
       <c r="B347">
-        <v>0.003764115432873275</v>
+        <v>0.003311258278145695</v>
       </c>
       <c r="C347">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D347">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="E347">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="F347">
-        <v>0.04000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G347" t="b">
         <v>1</v>
       </c>
       <c r="H347">
-        <v>794</v>
+        <v>301</v>
       </c>
       <c r="J347" s="1" t="s">
         <v>32</v>
@@ -22061,25 +22061,25 @@
         <v>353</v>
       </c>
       <c r="B348">
-        <v>0.00360082304526749</v>
+        <v>0.003292723081988805</v>
       </c>
       <c r="C348">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D348">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="E348">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F348">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G348" t="b">
         <v>1</v>
       </c>
       <c r="H348">
-        <v>1937</v>
+        <v>3027</v>
       </c>
       <c r="J348" s="1" t="s">
         <v>623</v>
@@ -22107,30 +22107,6 @@
       </c>
     </row>
     <row r="349" spans="1:17">
-      <c r="A349" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B349">
-        <v>0.003311258278145695</v>
-      </c>
-      <c r="C349">
-        <v>1</v>
-      </c>
-      <c r="D349">
-        <v>5</v>
-      </c>
-      <c r="E349">
-        <v>0.8</v>
-      </c>
-      <c r="F349">
-        <v>0.2</v>
-      </c>
-      <c r="G349" t="b">
-        <v>1</v>
-      </c>
-      <c r="H349">
-        <v>301</v>
-      </c>
       <c r="J349" s="1" t="s">
         <v>624</v>
       </c>
@@ -22157,30 +22133,6 @@
       </c>
     </row>
     <row r="350" spans="1:17">
-      <c r="A350" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B350">
-        <v>0.003292723081988805</v>
-      </c>
-      <c r="C350">
-        <v>10</v>
-      </c>
-      <c r="D350">
-        <v>174</v>
-      </c>
-      <c r="E350">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F350">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G350" t="b">
-        <v>1</v>
-      </c>
-      <c r="H350">
-        <v>3027</v>
-      </c>
       <c r="J350" s="1" t="s">
         <v>625</v>
       </c>
@@ -22234,7 +22186,7 @@
     </row>
     <row r="352" spans="1:17">
       <c r="J352" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K352">
         <v>0.25</v>
@@ -22312,7 +22264,7 @@
     </row>
     <row r="355" spans="10:17">
       <c r="J355" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K355">
         <v>0.2468354430379747</v>
@@ -22390,7 +22342,7 @@
     </row>
     <row r="358" spans="10:17">
       <c r="J358" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K358">
         <v>0.2413793103448276</v>
@@ -22546,7 +22498,7 @@
     </row>
     <row r="364" spans="10:17">
       <c r="J364" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K364">
         <v>0.2336448598130841</v>
@@ -22598,7 +22550,7 @@
     </row>
     <row r="366" spans="10:17">
       <c r="J366" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K366">
         <v>0.2307692307692308</v>
@@ -22676,7 +22628,7 @@
     </row>
     <row r="369" spans="10:17">
       <c r="J369" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K369">
         <v>0.2307692307692308</v>
@@ -22806,7 +22758,7 @@
     </row>
     <row r="374" spans="10:17">
       <c r="J374" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K374">
         <v>0.2307692307692308</v>
@@ -23352,7 +23304,7 @@
     </row>
     <row r="395" spans="10:17">
       <c r="J395" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K395">
         <v>0.2173913043478261</v>
@@ -23456,7 +23408,7 @@
     </row>
     <row r="399" spans="10:17">
       <c r="J399" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K399">
         <v>0.2142857142857143</v>
@@ -23638,7 +23590,7 @@
     </row>
     <row r="406" spans="10:17">
       <c r="J406" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K406">
         <v>0.2142857142857143</v>
@@ -23664,7 +23616,7 @@
     </row>
     <row r="407" spans="10:17">
       <c r="J407" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K407">
         <v>0.2105263157894737</v>
@@ -23716,7 +23668,7 @@
     </row>
     <row r="409" spans="10:17">
       <c r="J409" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K409">
         <v>0.2083333333333333</v>
@@ -23794,7 +23746,7 @@
     </row>
     <row r="412" spans="10:17">
       <c r="J412" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K412">
         <v>0.2053140096618357</v>
@@ -23820,7 +23772,7 @@
     </row>
     <row r="413" spans="10:17">
       <c r="J413" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K413">
         <v>0.2051282051282051</v>
@@ -23872,7 +23824,7 @@
     </row>
     <row r="415" spans="10:17">
       <c r="J415" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K415">
         <v>0.2033898305084746</v>
@@ -23976,7 +23928,7 @@
     </row>
     <row r="419" spans="10:17">
       <c r="J419" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K419">
         <v>0.2</v>
@@ -24002,7 +23954,7 @@
     </row>
     <row r="420" spans="10:17">
       <c r="J420" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K420">
         <v>0.2</v>
@@ -24626,7 +24578,7 @@
     </row>
     <row r="444" spans="10:17">
       <c r="J444" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K444">
         <v>0.2</v>
@@ -24652,7 +24604,7 @@
     </row>
     <row r="445" spans="10:17">
       <c r="J445" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K445">
         <v>0.1971830985915493</v>
@@ -24678,7 +24630,7 @@
     </row>
     <row r="446" spans="10:17">
       <c r="J446" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K446">
         <v>0.196969696969697</v>
@@ -24756,7 +24708,7 @@
     </row>
     <row r="449" spans="10:17">
       <c r="J449" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K449">
         <v>0.1923076923076923</v>
@@ -24834,7 +24786,7 @@
     </row>
     <row r="452" spans="10:17">
       <c r="J452" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K452">
         <v>0.1910828025477707</v>
@@ -25068,7 +25020,7 @@
     </row>
     <row r="461" spans="10:17">
       <c r="J461" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K461">
         <v>0.1875</v>
@@ -25198,7 +25150,7 @@
     </row>
     <row r="466" spans="10:17">
       <c r="J466" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K466">
         <v>0.1818181818181818</v>
@@ -25666,7 +25618,7 @@
     </row>
     <row r="484" spans="10:17">
       <c r="J484" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K484">
         <v>0.1764705882352941</v>
@@ -25744,7 +25696,7 @@
     </row>
     <row r="487" spans="10:17">
       <c r="J487" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K487">
         <v>0.1739130434782609</v>
@@ -25822,7 +25774,7 @@
     </row>
     <row r="490" spans="10:17">
       <c r="J490" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K490">
         <v>0.1702127659574468</v>
@@ -25848,7 +25800,7 @@
     </row>
     <row r="491" spans="10:17">
       <c r="J491" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K491">
         <v>0.1692307692307692</v>
@@ -25874,7 +25826,7 @@
     </row>
     <row r="492" spans="10:17">
       <c r="J492" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K492">
         <v>0.1691176470588235</v>
@@ -27616,7 +27568,7 @@
     </row>
     <row r="559" spans="10:17">
       <c r="J559" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K559">
         <v>0.1578947368421053</v>
@@ -28136,7 +28088,7 @@
     </row>
     <row r="579" spans="10:17">
       <c r="J579" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K579">
         <v>0.1503759398496241</v>
@@ -28240,7 +28192,7 @@
     </row>
     <row r="583" spans="10:17">
       <c r="J583" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K583">
         <v>0.1470588235294118</v>
@@ -28318,7 +28270,7 @@
     </row>
     <row r="586" spans="10:17">
       <c r="J586" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K586">
         <v>0.1454545454545454</v>
@@ -28838,7 +28790,7 @@
     </row>
     <row r="606" spans="10:17">
       <c r="J606" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K606">
         <v>0.1428571428571428</v>
@@ -29956,7 +29908,7 @@
     </row>
     <row r="649" spans="10:17">
       <c r="J649" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K649">
         <v>0.1368421052631579</v>
@@ -30008,7 +29960,7 @@
     </row>
     <row r="651" spans="10:17">
       <c r="J651" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K651">
         <v>0.1363636363636364</v>
@@ -30060,7 +30012,7 @@
     </row>
     <row r="653" spans="10:17">
       <c r="J653" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K653">
         <v>0.1363636363636364</v>
@@ -30086,7 +30038,7 @@
     </row>
     <row r="654" spans="10:17">
       <c r="J654" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K654">
         <v>0.1351351351351351</v>
@@ -30112,7 +30064,7 @@
     </row>
     <row r="655" spans="10:17">
       <c r="J655" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K655">
         <v>0.1346153846153846</v>
@@ -30450,7 +30402,7 @@
     </row>
     <row r="668" spans="10:17">
       <c r="J668" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K668">
         <v>0.1304347826086956</v>
@@ -30502,7 +30454,7 @@
     </row>
     <row r="670" spans="10:17">
       <c r="J670" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K670">
         <v>0.1280193236714976</v>
@@ -30528,7 +30480,7 @@
     </row>
     <row r="671" spans="10:17">
       <c r="J671" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K671">
         <v>0.128</v>
@@ -30580,7 +30532,7 @@
     </row>
     <row r="673" spans="10:17">
       <c r="J673" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K673">
         <v>0.1271186440677966</v>
@@ -30606,7 +30558,7 @@
     </row>
     <row r="674" spans="10:17">
       <c r="J674" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K674">
         <v>0.1271091113610799</v>
@@ -30736,7 +30688,7 @@
     </row>
     <row r="679" spans="10:17">
       <c r="J679" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K679">
         <v>0.125</v>
@@ -30866,7 +30818,7 @@
     </row>
     <row r="684" spans="10:17">
       <c r="J684" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K684">
         <v>0.125</v>
@@ -30970,7 +30922,7 @@
     </row>
     <row r="688" spans="10:17">
       <c r="J688" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K688">
         <v>0.125</v>
@@ -32244,7 +32196,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K737">
         <v>0.1230769230769231</v>
@@ -32296,7 +32248,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K739">
         <v>0.1214953271028037</v>
@@ -32348,7 +32300,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K741">
         <v>0.1212121212121212</v>
@@ -32400,7 +32352,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K743">
         <v>0.1206896551724138</v>
@@ -32998,7 +32950,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K766">
         <v>0.1129032258064516</v>
@@ -33024,7 +32976,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K767">
         <v>0.1129032258064516</v>
@@ -33258,7 +33210,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K776">
         <v>0.1111111111111111</v>
@@ -34324,7 +34276,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K817">
         <v>0.1103678929765886</v>
@@ -34350,7 +34302,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K818">
         <v>0.1101694915254237</v>
@@ -34402,7 +34354,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K820">
         <v>0.1076923076923077</v>
@@ -34818,7 +34770,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K836">
         <v>0.103448275862069</v>
@@ -34948,7 +34900,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K841">
         <v>0.1029411764705882</v>
@@ -35026,7 +34978,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K844">
         <v>0.1022727272727273</v>
@@ -35078,7 +35030,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K846">
         <v>0.1020408163265306</v>
@@ -35130,7 +35082,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K848">
         <v>0.100864553314121</v>
@@ -35780,7 +35732,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K873">
         <v>0.09782608695652174</v>
@@ -35832,7 +35784,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K875">
         <v>0.09677419354838709</v>
@@ -36014,7 +35966,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K882">
         <v>0.0958904109589041</v>
@@ -36118,7 +36070,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K886">
         <v>0.09523809523809523</v>
@@ -36352,7 +36304,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K895">
         <v>0.09316479400749064</v>
@@ -36430,7 +36382,7 @@
     </row>
     <row r="898" spans="10:17">
       <c r="J898" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K898">
         <v>0.09246686065308762</v>
@@ -36456,7 +36408,7 @@
     </row>
     <row r="899" spans="10:17">
       <c r="J899" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K899">
         <v>0.09230769230769231</v>
@@ -36560,7 +36512,7 @@
     </row>
     <row r="903" spans="10:17">
       <c r="J903" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K903">
         <v>0.09090909090909091</v>
@@ -36586,7 +36538,7 @@
     </row>
     <row r="904" spans="10:17">
       <c r="J904" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K904">
         <v>0.09090909090909091</v>
@@ -36742,7 +36694,7 @@
     </row>
     <row r="910" spans="10:17">
       <c r="J910" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K910">
         <v>0.09090909090909091</v>
@@ -36950,7 +36902,7 @@
     </row>
     <row r="918" spans="10:17">
       <c r="J918" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K918">
         <v>0.09090909090909091</v>
@@ -37392,7 +37344,7 @@
     </row>
     <row r="935" spans="10:17">
       <c r="J935" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K935">
         <v>0.08928571428571429</v>
@@ -37418,7 +37370,7 @@
     </row>
     <row r="936" spans="10:17">
       <c r="J936" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K936">
         <v>0.08928571428571429</v>
@@ -38510,7 +38462,7 @@
     </row>
     <row r="978" spans="10:17">
       <c r="J978" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K978">
         <v>0.08270676691729323</v>
@@ -38588,7 +38540,7 @@
     </row>
     <row r="981" spans="10:17">
       <c r="J981" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K981">
         <v>0.08163265306122448</v>
@@ -38666,7 +38618,7 @@
     </row>
     <row r="984" spans="10:17">
       <c r="J984" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K984">
         <v>0.08101851851851852</v>
@@ -38692,7 +38644,7 @@
     </row>
     <row r="985" spans="10:17">
       <c r="J985" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K985">
         <v>0.08088235294117647</v>
@@ -38744,7 +38696,7 @@
     </row>
     <row r="987" spans="10:17">
       <c r="J987" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K987">
         <v>0.08</v>
@@ -38822,7 +38774,7 @@
     </row>
     <row r="990" spans="10:17">
       <c r="J990" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K990">
         <v>0.07926829268292683</v>
@@ -38848,7 +38800,7 @@
     </row>
     <row r="991" spans="10:17">
       <c r="J991" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K991">
         <v>0.07882534775888717</v>
@@ -39212,7 +39164,7 @@
     </row>
     <row r="1005" spans="10:17">
       <c r="J1005" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K1005">
         <v>0.07692307692307693</v>
@@ -39498,7 +39450,7 @@
     </row>
     <row r="1016" spans="10:17">
       <c r="J1016" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K1016">
         <v>0.07407407407407407</v>
@@ -39524,7 +39476,7 @@
     </row>
     <row r="1017" spans="10:17">
       <c r="J1017" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K1017">
         <v>0.07407407407407407</v>
@@ -39810,7 +39762,7 @@
     </row>
     <row r="1028" spans="10:17">
       <c r="J1028" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K1028">
         <v>0.07142857142857142</v>
@@ -40122,7 +40074,7 @@
     </row>
     <row r="1040" spans="10:17">
       <c r="J1040" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K1040">
         <v>0.07058823529411765</v>
@@ -40824,7 +40776,7 @@
     </row>
     <row r="1067" spans="10:17">
       <c r="J1067" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K1067">
         <v>0.06666666666666667</v>
@@ -40850,7 +40802,7 @@
     </row>
     <row r="1068" spans="10:17">
       <c r="J1068" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K1068">
         <v>0.06593406593406594</v>
@@ -40928,7 +40880,7 @@
     </row>
     <row r="1071" spans="10:17">
       <c r="J1071" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K1071">
         <v>0.06521739130434782</v>
@@ -41552,7 +41504,7 @@
     </row>
     <row r="1095" spans="10:17">
       <c r="J1095" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K1095">
         <v>0.06060606060606061</v>
@@ -41942,7 +41894,7 @@
     </row>
     <row r="1110" spans="10:17">
       <c r="J1110" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K1110">
         <v>0.05882352941176471</v>
@@ -42254,7 +42206,7 @@
     </row>
     <row r="1122" spans="10:17">
       <c r="J1122" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K1122">
         <v>0.05681818181818182</v>
@@ -42384,7 +42336,7 @@
     </row>
     <row r="1127" spans="10:17">
       <c r="J1127" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K1127">
         <v>0.05555555555555555</v>
@@ -42722,7 +42674,7 @@
     </row>
     <row r="1140" spans="10:17">
       <c r="J1140" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K1140">
         <v>0.05521472392638037</v>
@@ -43138,7 +43090,7 @@
     </row>
     <row r="1156" spans="10:17">
       <c r="J1156" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K1156">
         <v>0.05172413793103448</v>
@@ -43164,7 +43116,7 @@
     </row>
     <row r="1157" spans="10:17">
       <c r="J1157" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K1157">
         <v>0.05139454716389846</v>
@@ -43242,7 +43194,7 @@
     </row>
     <row r="1160" spans="10:17">
       <c r="J1160" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K1160">
         <v>0.05102040816326531</v>
@@ -43346,7 +43298,7 @@
     </row>
     <row r="1164" spans="10:17">
       <c r="J1164" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K1164">
         <v>0.05063291139240506</v>
@@ -43580,7 +43532,7 @@
     </row>
     <row r="1173" spans="10:17">
       <c r="J1173" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K1173">
         <v>0.05</v>
@@ -43684,7 +43636,7 @@
     </row>
     <row r="1177" spans="10:17">
       <c r="J1177" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K1177">
         <v>0.04930795847750865</v>
@@ -43710,7 +43662,7 @@
     </row>
     <row r="1178" spans="10:17">
       <c r="J1178" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K1178">
         <v>0.04910714285714286</v>
@@ -43736,7 +43688,7 @@
     </row>
     <row r="1179" spans="10:17">
       <c r="J1179" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K1179">
         <v>0.04819277108433735</v>
@@ -43892,7 +43844,7 @@
     </row>
     <row r="1185" spans="10:17">
       <c r="J1185" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K1185">
         <v>0.04545454545454546</v>
@@ -44048,7 +44000,7 @@
     </row>
     <row r="1191" spans="10:17">
       <c r="J1191" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K1191">
         <v>0.04464285714285714</v>
@@ -44516,7 +44468,7 @@
     </row>
     <row r="1209" spans="10:17">
       <c r="J1209" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K1209">
         <v>0.04066543438077634</v>
@@ -44620,7 +44572,7 @@
     </row>
     <row r="1213" spans="10:17">
       <c r="J1213" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K1213">
         <v>0.04</v>
@@ -44984,7 +44936,7 @@
     </row>
     <row r="1227" spans="10:17">
       <c r="J1227" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K1227">
         <v>0.03703703703703703</v>
@@ -45010,7 +44962,7 @@
     </row>
     <row r="1228" spans="10:17">
       <c r="J1228" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K1228">
         <v>0.03703703703703703</v>
@@ -45088,7 +45040,7 @@
     </row>
     <row r="1231" spans="10:17">
       <c r="J1231" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K1231">
         <v>0.03703703703703703</v>
@@ -45322,7 +45274,7 @@
     </row>
     <row r="1240" spans="10:17">
       <c r="J1240" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K1240">
         <v>0.03571428571428571</v>
@@ -45660,7 +45612,7 @@
     </row>
     <row r="1253" spans="10:17">
       <c r="J1253" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K1253">
         <v>0.03076923076923077</v>
@@ -45816,7 +45768,7 @@
     </row>
     <row r="1259" spans="10:17">
       <c r="J1259" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K1259">
         <v>0.02941176470588235</v>
@@ -45894,7 +45846,7 @@
     </row>
     <row r="1262" spans="10:17">
       <c r="J1262" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K1262">
         <v>0.02857142857142857</v>
@@ -45998,7 +45950,7 @@
     </row>
     <row r="1266" spans="10:17">
       <c r="J1266" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K1266">
         <v>0.02803738317757009</v>
@@ -46180,7 +46132,7 @@
     </row>
     <row r="1273" spans="10:17">
       <c r="J1273" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K1273">
         <v>0.02631578947368421</v>
@@ -46284,7 +46236,7 @@
     </row>
     <row r="1277" spans="10:17">
       <c r="J1277" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K1277">
         <v>0.02564102564102564</v>
@@ -46388,7 +46340,7 @@
     </row>
     <row r="1281" spans="10:17">
       <c r="J1281" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K1281">
         <v>0.025</v>
@@ -46414,7 +46366,7 @@
     </row>
     <row r="1282" spans="10:17">
       <c r="J1282" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K1282">
         <v>0.02439024390243903</v>
@@ -46596,7 +46548,7 @@
     </row>
     <row r="1289" spans="10:17">
       <c r="J1289" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K1289">
         <v>0.02362204724409449</v>
@@ -46674,7 +46626,7 @@
     </row>
     <row r="1292" spans="10:17">
       <c r="J1292" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K1292">
         <v>0.02284527518172378</v>
@@ -46986,7 +46938,7 @@
     </row>
     <row r="1304" spans="10:17">
       <c r="J1304" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K1304">
         <v>0.01904761904761905</v>
@@ -47168,7 +47120,7 @@
     </row>
     <row r="1311" spans="10:17">
       <c r="J1311" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K1311">
         <v>0.01311475409836066</v>
@@ -47376,7 +47328,7 @@
     </row>
     <row r="1319" spans="10:17">
       <c r="J1319" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K1319">
         <v>0.007874015748031496</v>
@@ -47454,7 +47406,7 @@
     </row>
     <row r="1322" spans="10:17">
       <c r="J1322" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K1322">
         <v>0.00425531914893617</v>
